--- a/svn/config/msg.xlsx
+++ b/svn/config/msg.xlsx
@@ -1,26 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26101"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zengfeng/workspaces/www/githubpages/ihaiu.UnityGameFrame/svn/config/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13650"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="sysmsg" localSheetId="0">Sheet1!$A$1:$K$69</definedName>
-  </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="sysmsg" type="6" background="1" refreshedVersion="2" saveData="1">
+  <connection id="1" name="sysmsg" type="6" refreshedVersion="2" background="1" saveData="1">
     <textPr sourceFile="C:\Users\ZF\Desktop\sysmsg.csv" tab="0" semicolon="1">
       <textFields>
         <textField/>
@@ -31,17 +38,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="86">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>说明</t>
-  </si>
-  <si>
-    <t>等级</t>
-  </si>
-  <si>
     <t>内容</t>
   </si>
   <si>
@@ -66,251 +67,243 @@
     <t>私聊频道</t>
   </si>
   <si>
-    <t>level</t>
+    <t>type</t>
+  </si>
+  <si>
+    <t>{0}</t>
+  </si>
+  <si>
+    <t>失败</t>
+  </si>
+  <si>
+    <t>参数错误</t>
+  </si>
+  <si>
+    <t>服务器未开放</t>
+  </si>
+  <si>
+    <t>服务器id不存在</t>
+  </si>
+  <si>
+    <t>登陆验证失败</t>
+  </si>
+  <si>
+    <t>名字重复</t>
+  </si>
+  <si>
+    <t>服务器内部错误</t>
+  </si>
+  <si>
+    <t>服务器即将关闭</t>
+  </si>
+  <si>
+    <t>搜索参数太长</t>
+  </si>
+  <si>
+    <t>无效的session id</t>
+  </si>
+  <si>
+    <t>access token无效</t>
+  </si>
+  <si>
+    <t>重连失败</t>
+  </si>
+  <si>
+    <t>{0}离开战斗</t>
+  </si>
+  <si>
+    <t>{0}重新进入战斗</t>
+  </si>
+  <si>
+    <t>战斗已经结束</t>
+  </si>
+  <si>
+    <t>{0}投降</t>
+  </si>
+  <si>
+    <t>投降通过</t>
+  </si>
+  <si>
+    <t>投降被否决</t>
+  </si>
+  <si>
+    <t>玩家重复登陆</t>
+  </si>
+  <si>
+    <t>角色不存在</t>
+  </si>
+  <si>
+    <t>角色名称已经存在</t>
+  </si>
+  <si>
+    <t>角色名称过长</t>
+  </si>
+  <si>
+    <t>铜钱不足</t>
+  </si>
+  <si>
+    <t>元宝不足</t>
+  </si>
+  <si>
+    <t>主公等级不足</t>
+  </si>
+  <si>
+    <t xml:space="preserve">卡牌不存在 </t>
+  </si>
+  <si>
+    <t>卡牌不能超过主公等级</t>
+  </si>
+  <si>
+    <t>卡牌数量不足</t>
+  </si>
+  <si>
+    <t>宝箱不存在</t>
+  </si>
+  <si>
+    <t>宝箱数量不足</t>
+  </si>
+  <si>
+    <t>宝箱星星不足</t>
+  </si>
+  <si>
+    <t>宝箱不可开启</t>
+  </si>
+  <si>
+    <t>宝箱状态</t>
+  </si>
+  <si>
+    <t>已有宝箱状态在解锁中</t>
+  </si>
+  <si>
+    <t>宝箱时间不足</t>
+  </si>
+  <si>
+    <t>宝箱数量超出</t>
+  </si>
+  <si>
+    <t>宝箱类型错误</t>
+  </si>
+  <si>
+    <t>商店刷新时间不足</t>
+  </si>
+  <si>
+    <t>士兵已存在</t>
+  </si>
+  <si>
+    <t>士兵不存在</t>
+  </si>
+  <si>
+    <t>士兵未解锁</t>
+  </si>
+  <si>
+    <t>任务不存在</t>
+  </si>
+  <si>
+    <t>任务未完成</t>
+  </si>
+  <si>
+    <t>任务奖励已领取</t>
+  </si>
+  <si>
+    <t>邮件不存在</t>
+  </si>
+  <si>
+    <t>邮件没有附件</t>
+  </si>
+  <si>
+    <t>副本未解锁</t>
+  </si>
+  <si>
+    <t>副本未通关</t>
+  </si>
+  <si>
+    <t>副本星级不足</t>
+  </si>
+  <si>
+    <t>没有可开启的宝箱</t>
+  </si>
+  <si>
+    <t>公会不存在</t>
+  </si>
+  <si>
+    <t>已在公会中</t>
+  </si>
+  <si>
+    <t>不在公会中</t>
+  </si>
+  <si>
+    <t>奖杯数不足</t>
+  </si>
+  <si>
+    <t>公会不允许加入</t>
+  </si>
+  <si>
+    <t>玩家权限不足</t>
+  </si>
+  <si>
+    <t>加入公会时间冷却中</t>
+  </si>
+  <si>
+    <t>卡牌增援冷却中</t>
+  </si>
+  <si>
+    <t>卡牌捐赠达到数量上限</t>
+  </si>
+  <si>
+    <t>卡牌捐赠达到价值上限</t>
+  </si>
+  <si>
+    <t>卡牌捐赠已满</t>
+  </si>
+  <si>
+    <t>公会成员已满</t>
+  </si>
+  <si>
+    <t>签到时间未到</t>
+  </si>
+  <si>
+    <t>签到天数有误</t>
+  </si>
+  <si>
+    <t>聊天信息过长</t>
+  </si>
+  <si>
+    <t>战斗房间已销毁</t>
+  </si>
+  <si>
+    <t>好友不在可参战状态</t>
+  </si>
+  <si>
+    <t>好友已经离开邀请对战</t>
+  </si>
+  <si>
+    <t>礼品兑换码不存在</t>
+  </si>
+  <si>
+    <t>活动时间未开放</t>
+  </si>
+  <si>
+    <t>你已被拉入黑名单，无法聊天。</t>
+  </si>
+  <si>
+    <t>该玩家设置为匿名，无法关注</t>
+  </si>
+  <si>
+    <t>已经是粉丝</t>
+  </si>
+  <si>
+    <t>不能关注自己</t>
   </si>
   <si>
     <t>content</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>{0}</t>
-  </si>
-  <si>
-    <t>失败</t>
-  </si>
-  <si>
-    <t>参数错误</t>
-  </si>
-  <si>
-    <t>服务器未开放</t>
-  </si>
-  <si>
-    <t>服务器id不存在</t>
-  </si>
-  <si>
-    <t>登陆验证失败</t>
-  </si>
-  <si>
-    <t>名字重复</t>
-  </si>
-  <si>
-    <t>服务器内部错误</t>
-  </si>
-  <si>
-    <t>服务器即将关闭</t>
-  </si>
-  <si>
-    <t>搜索参数太长</t>
-  </si>
-  <si>
-    <t>无效的session id</t>
-  </si>
-  <si>
-    <t>access token无效</t>
-  </si>
-  <si>
-    <t>重连失败</t>
-  </si>
-  <si>
-    <t>{0}离开战斗</t>
-  </si>
-  <si>
-    <t>{0}重新进入战斗</t>
-  </si>
-  <si>
-    <t>战斗已经结束</t>
-  </si>
-  <si>
-    <t>{0}投降</t>
-  </si>
-  <si>
-    <t>投降通过</t>
-  </si>
-  <si>
-    <t>投降被否决</t>
-  </si>
-  <si>
-    <t>玩家重复登陆</t>
-  </si>
-  <si>
-    <t>角色不存在</t>
-  </si>
-  <si>
-    <t>角色名称已经存在</t>
-  </si>
-  <si>
-    <t>角色名称过长</t>
-  </si>
-  <si>
-    <t>铜钱不足</t>
-  </si>
-  <si>
-    <t>元宝不足</t>
-  </si>
-  <si>
-    <t>主公等级不足</t>
-  </si>
-  <si>
-    <t xml:space="preserve">卡牌不存在 </t>
-  </si>
-  <si>
-    <t>卡牌不能超过主公等级</t>
-  </si>
-  <si>
-    <t>卡牌数量不足</t>
-  </si>
-  <si>
-    <t>宝箱不存在</t>
-  </si>
-  <si>
-    <t>宝箱数量不足</t>
-  </si>
-  <si>
-    <t>宝箱星星不足</t>
-  </si>
-  <si>
-    <t>宝箱不可开启</t>
-  </si>
-  <si>
-    <t>宝箱状态</t>
-  </si>
-  <si>
-    <t>已有宝箱状态在解锁中</t>
-  </si>
-  <si>
-    <t>宝箱时间不足</t>
-  </si>
-  <si>
-    <t>宝箱数量超出</t>
-  </si>
-  <si>
-    <t>宝箱类型错误</t>
-  </si>
-  <si>
-    <t>商店刷新时间不足</t>
-  </si>
-  <si>
-    <t>士兵已存在</t>
-  </si>
-  <si>
-    <t>士兵不存在</t>
-  </si>
-  <si>
-    <t>士兵未解锁</t>
-  </si>
-  <si>
-    <t>任务不存在</t>
-  </si>
-  <si>
-    <t>任务未完成</t>
-  </si>
-  <si>
-    <t>任务奖励已领取</t>
-  </si>
-  <si>
-    <t>邮件不存在</t>
-  </si>
-  <si>
-    <t>邮件没有附件</t>
-  </si>
-  <si>
-    <t>副本未解锁</t>
-  </si>
-  <si>
-    <t>副本未通关</t>
-  </si>
-  <si>
-    <t>副本星级不足</t>
-  </si>
-  <si>
-    <t>没有可开启的宝箱</t>
-  </si>
-  <si>
-    <t>公会不存在</t>
-  </si>
-  <si>
-    <t>已在公会中</t>
-  </si>
-  <si>
-    <t>不在公会中</t>
-  </si>
-  <si>
-    <t>奖杯数不足</t>
-  </si>
-  <si>
-    <t>公会不允许加入</t>
-  </si>
-  <si>
-    <t>玩家权限不足</t>
-  </si>
-  <si>
-    <t>加入公会时间冷却中</t>
-  </si>
-  <si>
-    <t>卡牌增援冷却中</t>
-  </si>
-  <si>
-    <t>卡牌捐赠达到数量上限</t>
-  </si>
-  <si>
-    <t>卡牌捐赠达到价值上限</t>
-  </si>
-  <si>
-    <t>卡牌捐赠已满</t>
-  </si>
-  <si>
-    <t>公会成员已满</t>
-  </si>
-  <si>
-    <t>签到时间未到</t>
-  </si>
-  <si>
-    <t>签到天数有误</t>
-  </si>
-  <si>
-    <t>聊天信息过长</t>
-  </si>
-  <si>
-    <t>战斗房间已销毁</t>
-  </si>
-  <si>
-    <t>好友不在可参战状态</t>
-  </si>
-  <si>
-    <t>好友已经离开邀请对战</t>
-  </si>
-  <si>
-    <t>礼品兑换码不存在</t>
-  </si>
-  <si>
-    <t>活动时间未开放</t>
-  </si>
-  <si>
-    <t>你已被拉入黑名单，无法聊天。</t>
-  </si>
-  <si>
-    <t>该玩家设置为匿名，无法关注</t>
-  </si>
-  <si>
-    <t>已经是粉丝</t>
-  </si>
-  <si>
-    <t>不能关注自己</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,345 +312,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -665,251 +334,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -918,79 +345,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="sysmsg" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="1" nextId="12">
-    <queryTableFields count="11">
-      <queryTableField id="1" dataBound="0"/>
-      <queryTableField id="2" dataBound="0"/>
-      <queryTableField id="3" dataBound="0"/>
-      <queryTableField id="4" dataBound="0"/>
-      <queryTableField id="5" dataBound="0"/>
-      <queryTableField id="6" dataBound="0"/>
-      <queryTableField id="7" dataBound="0"/>
-      <queryTableField id="8" dataBound="0"/>
-      <queryTableField id="9" dataBound="0"/>
-      <queryTableField id="10" dataBound="0"/>
-      <queryTableField id="11" dataBound="0"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1279,25 +644,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:K77"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
-    <col min="2" max="2" width="5.125" customWidth="1"/>
-    <col min="3" max="3" width="6.5" customWidth="1"/>
-    <col min="4" max="4" width="21.375" customWidth="1"/>
-    <col min="5" max="5" width="61.625" customWidth="1"/>
-    <col min="6" max="7" width="7.125" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="61.6640625" customWidth="1"/>
+    <col min="4" max="5" width="7.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1325,74 +687,65 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4">
-        <v>1</v>
-      </c>
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4" t="s">
-        <v>15</v>
+      <c r="D4">
+        <v>1</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1403,28 +756,25 @@
       <c r="I4">
         <v>0</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5" t="s">
-        <v>16</v>
+      <c r="D5">
+        <v>1</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1435,28 +785,25 @@
       <c r="I5">
         <v>0</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>101</v>
       </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6" t="s">
-        <v>17</v>
+      <c r="D6">
+        <v>1</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1467,28 +814,25 @@
       <c r="I6">
         <v>0</v>
       </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>102</v>
       </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7" t="s">
-        <v>18</v>
+      <c r="D7">
+        <v>1</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1499,28 +843,25 @@
       <c r="I7">
         <v>0</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>103</v>
       </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="D8" t="s">
-        <v>19</v>
+      <c r="D8">
+        <v>1</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1531,28 +872,25 @@
       <c r="I8">
         <v>0</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>104</v>
       </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
       <c r="C9">
         <v>0</v>
       </c>
-      <c r="D9" t="s">
-        <v>20</v>
+      <c r="D9">
+        <v>1</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1563,28 +901,25 @@
       <c r="I9">
         <v>0</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>105</v>
       </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
       <c r="C10">
         <v>0</v>
       </c>
-      <c r="D10" t="s">
-        <v>21</v>
+      <c r="D10">
+        <v>1</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1595,28 +930,25 @@
       <c r="I10">
         <v>0</v>
       </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>106</v>
       </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
+      <c r="D11">
+        <v>1</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1627,28 +959,25 @@
       <c r="I11">
         <v>0</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>107</v>
       </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
       <c r="C12">
         <v>0</v>
       </c>
-      <c r="D12" t="s">
-        <v>23</v>
+      <c r="D12">
+        <v>1</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1659,28 +988,25 @@
       <c r="I12">
         <v>0</v>
       </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>201</v>
       </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
       <c r="C13">
         <v>0</v>
       </c>
-      <c r="D13" t="s">
-        <v>24</v>
+      <c r="D13">
+        <v>1</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1691,28 +1017,25 @@
       <c r="I13">
         <v>0</v>
       </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>202</v>
       </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
       <c r="C14">
         <v>0</v>
       </c>
-      <c r="D14" t="s">
-        <v>25</v>
+      <c r="D14">
+        <v>1</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1723,28 +1046,25 @@
       <c r="I14">
         <v>0</v>
       </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>203</v>
       </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
       <c r="C15">
         <v>0</v>
       </c>
-      <c r="D15" t="s">
-        <v>26</v>
+      <c r="D15">
+        <v>1</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1755,28 +1075,25 @@
       <c r="I15">
         <v>0</v>
       </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>205</v>
       </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
       <c r="C16">
         <v>0</v>
       </c>
-      <c r="D16" t="s">
-        <v>27</v>
+      <c r="D16">
+        <v>1</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1787,28 +1104,25 @@
       <c r="I16">
         <v>0</v>
       </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>206</v>
       </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
       <c r="C17">
         <v>0</v>
       </c>
-      <c r="D17" t="s">
-        <v>28</v>
+      <c r="D17">
+        <v>1</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1819,28 +1133,25 @@
       <c r="I17">
         <v>0</v>
       </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>207</v>
       </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
       <c r="C18">
         <v>0</v>
       </c>
-      <c r="D18" t="s">
-        <v>29</v>
+      <c r="D18">
+        <v>1</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1851,28 +1162,25 @@
       <c r="I18">
         <v>0</v>
       </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>208</v>
       </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
       <c r="C19">
         <v>0</v>
       </c>
-      <c r="D19" t="s">
-        <v>30</v>
+      <c r="D19">
+        <v>1</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1883,28 +1191,25 @@
       <c r="I19">
         <v>0</v>
       </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>209</v>
       </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
       <c r="C20">
         <v>0</v>
       </c>
-      <c r="D20" t="s">
-        <v>31</v>
+      <c r="D20">
+        <v>1</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1915,28 +1220,25 @@
       <c r="I20">
         <v>0</v>
       </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>210</v>
       </c>
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
       <c r="C21">
         <v>0</v>
       </c>
-      <c r="D21" t="s">
-        <v>32</v>
+      <c r="D21">
+        <v>1</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1947,28 +1249,25 @@
       <c r="I21">
         <v>0</v>
       </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>301</v>
       </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
       <c r="C22">
         <v>0</v>
       </c>
-      <c r="D22" t="s">
-        <v>33</v>
+      <c r="D22">
+        <v>1</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1979,28 +1278,25 @@
       <c r="I22">
         <v>0</v>
       </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>302</v>
       </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
       <c r="C23">
         <v>0</v>
       </c>
-      <c r="D23" t="s">
-        <v>34</v>
+      <c r="D23">
+        <v>1</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2011,28 +1307,25 @@
       <c r="I23">
         <v>0</v>
       </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>303</v>
       </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
       <c r="C24">
         <v>0</v>
       </c>
-      <c r="D24" t="s">
-        <v>35</v>
+      <c r="D24">
+        <v>1</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2043,28 +1336,25 @@
       <c r="I24">
         <v>0</v>
       </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>304</v>
       </c>
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
       <c r="C25">
         <v>0</v>
       </c>
-      <c r="D25" t="s">
-        <v>36</v>
+      <c r="D25">
+        <v>1</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2075,28 +1365,25 @@
       <c r="I25">
         <v>0</v>
       </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>305</v>
       </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
       <c r="C26">
         <v>0</v>
       </c>
-      <c r="D26" t="s">
-        <v>37</v>
+      <c r="D26">
+        <v>1</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2107,28 +1394,25 @@
       <c r="I26">
         <v>0</v>
       </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>306</v>
       </c>
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
       <c r="C27">
         <v>0</v>
       </c>
-      <c r="D27" t="s">
-        <v>38</v>
+      <c r="D27">
+        <v>1</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2139,28 +1423,25 @@
       <c r="I27">
         <v>0</v>
       </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>307</v>
       </c>
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
       <c r="C28">
         <v>0</v>
       </c>
-      <c r="D28" t="s">
-        <v>39</v>
+      <c r="D28">
+        <v>1</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -2171,28 +1452,25 @@
       <c r="I28">
         <v>0</v>
       </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>401</v>
       </c>
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
       <c r="C29">
         <v>0</v>
       </c>
-      <c r="D29" t="s">
-        <v>40</v>
+      <c r="D29">
+        <v>1</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2203,28 +1481,25 @@
       <c r="I29">
         <v>0</v>
       </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>402</v>
       </c>
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
       <c r="C30">
         <v>0</v>
       </c>
-      <c r="D30" t="s">
-        <v>41</v>
+      <c r="D30">
+        <v>1</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -2235,28 +1510,25 @@
       <c r="I30">
         <v>0</v>
       </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>403</v>
       </c>
+      <c r="B31" t="s">
+        <v>38</v>
+      </c>
       <c r="C31">
         <v>0</v>
       </c>
-      <c r="D31" t="s">
-        <v>42</v>
+      <c r="D31">
+        <v>1</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -2267,28 +1539,25 @@
       <c r="I31">
         <v>0</v>
       </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>501</v>
       </c>
+      <c r="B32" t="s">
+        <v>39</v>
+      </c>
       <c r="C32">
         <v>0</v>
       </c>
-      <c r="D32" t="s">
-        <v>43</v>
+      <c r="D32">
+        <v>1</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -2299,28 +1568,25 @@
       <c r="I32">
         <v>0</v>
       </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>502</v>
       </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
       <c r="C33">
         <v>0</v>
       </c>
-      <c r="D33" t="s">
-        <v>44</v>
+      <c r="D33">
+        <v>1</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -2331,28 +1597,25 @@
       <c r="I33">
         <v>0</v>
       </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>503</v>
       </c>
+      <c r="B34" t="s">
+        <v>41</v>
+      </c>
       <c r="C34">
         <v>0</v>
       </c>
-      <c r="D34" t="s">
-        <v>45</v>
+      <c r="D34">
+        <v>1</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -2363,28 +1626,25 @@
       <c r="I34">
         <v>0</v>
       </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>504</v>
       </c>
+      <c r="B35" t="s">
+        <v>42</v>
+      </c>
       <c r="C35">
         <v>0</v>
       </c>
-      <c r="D35" t="s">
-        <v>46</v>
+      <c r="D35">
+        <v>1</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -2395,28 +1655,25 @@
       <c r="I35">
         <v>0</v>
       </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>505</v>
       </c>
+      <c r="B36" t="s">
+        <v>43</v>
+      </c>
       <c r="C36">
         <v>0</v>
       </c>
-      <c r="D36" t="s">
-        <v>47</v>
+      <c r="D36">
+        <v>1</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -2427,28 +1684,25 @@
       <c r="I36">
         <v>0</v>
       </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>506</v>
       </c>
+      <c r="B37" t="s">
+        <v>44</v>
+      </c>
       <c r="C37">
         <v>0</v>
       </c>
-      <c r="D37" t="s">
-        <v>48</v>
+      <c r="D37">
+        <v>1</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -2459,28 +1713,25 @@
       <c r="I37">
         <v>0</v>
       </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>507</v>
       </c>
+      <c r="B38" t="s">
+        <v>45</v>
+      </c>
       <c r="C38">
         <v>0</v>
       </c>
-      <c r="D38" t="s">
-        <v>49</v>
+      <c r="D38">
+        <v>1</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -2491,28 +1742,25 @@
       <c r="I38">
         <v>0</v>
       </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>508</v>
       </c>
+      <c r="B39" t="s">
+        <v>46</v>
+      </c>
       <c r="C39">
         <v>0</v>
       </c>
-      <c r="D39" t="s">
-        <v>50</v>
+      <c r="D39">
+        <v>1</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -2523,28 +1771,25 @@
       <c r="I39">
         <v>0</v>
       </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>509</v>
       </c>
+      <c r="B40" t="s">
+        <v>47</v>
+      </c>
       <c r="C40">
         <v>0</v>
       </c>
-      <c r="D40" t="s">
-        <v>51</v>
+      <c r="D40">
+        <v>1</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -2555,28 +1800,25 @@
       <c r="I40">
         <v>0</v>
       </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>601</v>
       </c>
+      <c r="B41" t="s">
+        <v>48</v>
+      </c>
       <c r="C41">
         <v>0</v>
       </c>
-      <c r="D41" t="s">
-        <v>52</v>
+      <c r="D41">
+        <v>1</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -2587,28 +1829,25 @@
       <c r="I41">
         <v>0</v>
       </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>701</v>
       </c>
+      <c r="B42" t="s">
+        <v>49</v>
+      </c>
       <c r="C42">
         <v>0</v>
       </c>
-      <c r="D42" t="s">
-        <v>53</v>
+      <c r="D42">
+        <v>1</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -2619,28 +1858,25 @@
       <c r="I42">
         <v>0</v>
       </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>702</v>
       </c>
+      <c r="B43" t="s">
+        <v>50</v>
+      </c>
       <c r="C43">
         <v>0</v>
       </c>
-      <c r="D43" t="s">
-        <v>54</v>
+      <c r="D43">
+        <v>1</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -2651,28 +1887,25 @@
       <c r="I43">
         <v>0</v>
       </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>703</v>
       </c>
+      <c r="B44" t="s">
+        <v>51</v>
+      </c>
       <c r="C44">
         <v>0</v>
       </c>
-      <c r="D44" t="s">
-        <v>55</v>
+      <c r="D44">
+        <v>1</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -2683,28 +1916,25 @@
       <c r="I44">
         <v>0</v>
       </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>801</v>
       </c>
+      <c r="B45" t="s">
+        <v>52</v>
+      </c>
       <c r="C45">
         <v>0</v>
       </c>
-      <c r="D45" t="s">
-        <v>56</v>
+      <c r="D45">
+        <v>1</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -2715,28 +1945,25 @@
       <c r="I45">
         <v>0</v>
       </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>802</v>
       </c>
+      <c r="B46" t="s">
+        <v>53</v>
+      </c>
       <c r="C46">
         <v>0</v>
       </c>
-      <c r="D46" t="s">
-        <v>57</v>
+      <c r="D46">
+        <v>1</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -2747,28 +1974,25 @@
       <c r="I46">
         <v>0</v>
       </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>803</v>
       </c>
+      <c r="B47" t="s">
+        <v>54</v>
+      </c>
       <c r="C47">
         <v>0</v>
       </c>
-      <c r="D47" t="s">
-        <v>58</v>
+      <c r="D47">
+        <v>1</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -2779,28 +2003,25 @@
       <c r="I47">
         <v>0</v>
       </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>901</v>
       </c>
+      <c r="B48" t="s">
+        <v>55</v>
+      </c>
       <c r="C48">
         <v>0</v>
       </c>
-      <c r="D48" t="s">
-        <v>59</v>
+      <c r="D48">
+        <v>1</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -2811,28 +2032,25 @@
       <c r="I48">
         <v>0</v>
       </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>902</v>
       </c>
+      <c r="B49" t="s">
+        <v>56</v>
+      </c>
       <c r="C49">
         <v>0</v>
       </c>
-      <c r="D49" t="s">
-        <v>60</v>
+      <c r="D49">
+        <v>1</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -2843,28 +2061,25 @@
       <c r="I49">
         <v>0</v>
       </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>1001</v>
       </c>
+      <c r="B50" t="s">
+        <v>57</v>
+      </c>
       <c r="C50">
         <v>0</v>
       </c>
-      <c r="D50" t="s">
-        <v>61</v>
+      <c r="D50">
+        <v>1</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -2875,28 +2090,25 @@
       <c r="I50">
         <v>0</v>
       </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>1002</v>
       </c>
+      <c r="B51" t="s">
+        <v>58</v>
+      </c>
       <c r="C51">
         <v>0</v>
       </c>
-      <c r="D51" t="s">
-        <v>62</v>
+      <c r="D51">
+        <v>1</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -2907,28 +2119,25 @@
       <c r="I51">
         <v>0</v>
       </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>1003</v>
       </c>
+      <c r="B52" t="s">
+        <v>59</v>
+      </c>
       <c r="C52">
         <v>0</v>
       </c>
-      <c r="D52" t="s">
-        <v>63</v>
+      <c r="D52">
+        <v>1</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -2939,28 +2148,25 @@
       <c r="I52">
         <v>0</v>
       </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>1004</v>
       </c>
+      <c r="B53" t="s">
+        <v>60</v>
+      </c>
       <c r="C53">
         <v>0</v>
       </c>
-      <c r="D53" t="s">
-        <v>64</v>
+      <c r="D53">
+        <v>1</v>
       </c>
       <c r="E53">
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -2971,28 +2177,25 @@
       <c r="I53">
         <v>0</v>
       </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>1101</v>
       </c>
+      <c r="B54" t="s">
+        <v>61</v>
+      </c>
       <c r="C54">
         <v>0</v>
       </c>
-      <c r="D54" t="s">
-        <v>65</v>
+      <c r="D54">
+        <v>1</v>
       </c>
       <c r="E54">
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -3003,28 +2206,25 @@
       <c r="I54">
         <v>0</v>
       </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>1102</v>
       </c>
+      <c r="B55" t="s">
+        <v>62</v>
+      </c>
       <c r="C55">
         <v>0</v>
       </c>
-      <c r="D55" t="s">
-        <v>66</v>
+      <c r="D55">
+        <v>1</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -3035,28 +2235,25 @@
       <c r="I55">
         <v>0</v>
       </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>1103</v>
       </c>
+      <c r="B56" t="s">
+        <v>63</v>
+      </c>
       <c r="C56">
         <v>0</v>
       </c>
-      <c r="D56" t="s">
-        <v>67</v>
+      <c r="D56">
+        <v>1</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -3067,28 +2264,25 @@
       <c r="I56">
         <v>0</v>
       </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>1104</v>
       </c>
+      <c r="B57" t="s">
+        <v>64</v>
+      </c>
       <c r="C57">
         <v>0</v>
       </c>
-      <c r="D57" t="s">
-        <v>68</v>
+      <c r="D57">
+        <v>1</v>
       </c>
       <c r="E57">
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -3099,28 +2293,25 @@
       <c r="I57">
         <v>0</v>
       </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>1105</v>
       </c>
+      <c r="B58" t="s">
+        <v>65</v>
+      </c>
       <c r="C58">
         <v>0</v>
       </c>
-      <c r="D58" t="s">
-        <v>69</v>
+      <c r="D58">
+        <v>1</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -3131,28 +2322,25 @@
       <c r="I58">
         <v>0</v>
       </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>1106</v>
       </c>
+      <c r="B59" t="s">
+        <v>66</v>
+      </c>
       <c r="C59">
         <v>0</v>
       </c>
-      <c r="D59" t="s">
-        <v>70</v>
+      <c r="D59">
+        <v>1</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -3163,28 +2351,25 @@
       <c r="I59">
         <v>0</v>
       </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-      <c r="K59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>1107</v>
       </c>
+      <c r="B60" t="s">
+        <v>67</v>
+      </c>
       <c r="C60">
         <v>0</v>
       </c>
-      <c r="D60" t="s">
-        <v>71</v>
+      <c r="D60">
+        <v>1</v>
       </c>
       <c r="E60">
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -3195,28 +2380,25 @@
       <c r="I60">
         <v>0</v>
       </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>1108</v>
       </c>
+      <c r="B61" t="s">
+        <v>68</v>
+      </c>
       <c r="C61">
         <v>0</v>
       </c>
-      <c r="D61" t="s">
-        <v>72</v>
+      <c r="D61">
+        <v>1</v>
       </c>
       <c r="E61">
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -3227,28 +2409,25 @@
       <c r="I61">
         <v>0</v>
       </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>1109</v>
       </c>
+      <c r="B62" t="s">
+        <v>69</v>
+      </c>
       <c r="C62">
         <v>0</v>
       </c>
-      <c r="D62" t="s">
-        <v>73</v>
+      <c r="D62">
+        <v>1</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -3259,28 +2438,25 @@
       <c r="I62">
         <v>0</v>
       </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-      <c r="K62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>1110</v>
       </c>
+      <c r="B63" t="s">
+        <v>70</v>
+      </c>
       <c r="C63">
         <v>0</v>
       </c>
-      <c r="D63" t="s">
-        <v>74</v>
+      <c r="D63">
+        <v>1</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -3291,28 +2467,25 @@
       <c r="I63">
         <v>0</v>
       </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
-      <c r="K63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>1111</v>
       </c>
+      <c r="B64" t="s">
+        <v>71</v>
+      </c>
       <c r="C64">
         <v>0</v>
       </c>
-      <c r="D64" t="s">
-        <v>75</v>
+      <c r="D64">
+        <v>1</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -3323,28 +2496,25 @@
       <c r="I64">
         <v>0</v>
       </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-      <c r="K64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>1112</v>
       </c>
+      <c r="B65" t="s">
+        <v>72</v>
+      </c>
       <c r="C65">
         <v>0</v>
       </c>
-      <c r="D65" t="s">
-        <v>76</v>
+      <c r="D65">
+        <v>1</v>
       </c>
       <c r="E65">
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -3355,28 +2525,25 @@
       <c r="I65">
         <v>0</v>
       </c>
-      <c r="J65">
-        <v>0</v>
-      </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>1201</v>
       </c>
+      <c r="B66" t="s">
+        <v>73</v>
+      </c>
       <c r="C66">
         <v>0</v>
       </c>
-      <c r="D66" t="s">
-        <v>77</v>
+      <c r="D66">
+        <v>1</v>
       </c>
       <c r="E66">
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -3387,28 +2554,25 @@
       <c r="I66">
         <v>0</v>
       </c>
-      <c r="J66">
-        <v>0</v>
-      </c>
-      <c r="K66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>1202</v>
       </c>
+      <c r="B67" t="s">
+        <v>74</v>
+      </c>
       <c r="C67">
         <v>0</v>
       </c>
-      <c r="D67" t="s">
-        <v>78</v>
+      <c r="D67">
+        <v>1</v>
       </c>
       <c r="E67">
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -3419,28 +2583,25 @@
       <c r="I67">
         <v>0</v>
       </c>
-      <c r="J67">
-        <v>0</v>
-      </c>
-      <c r="K67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>1301</v>
       </c>
+      <c r="B68" t="s">
+        <v>75</v>
+      </c>
       <c r="C68">
         <v>0</v>
       </c>
-      <c r="D68" t="s">
-        <v>79</v>
+      <c r="D68">
+        <v>1</v>
       </c>
       <c r="E68">
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -3451,28 +2612,25 @@
       <c r="I68">
         <v>0</v>
       </c>
-      <c r="J68">
-        <v>0</v>
-      </c>
-      <c r="K68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>1401</v>
       </c>
+      <c r="B69" t="s">
+        <v>76</v>
+      </c>
       <c r="C69">
         <v>0</v>
       </c>
-      <c r="D69" t="s">
-        <v>80</v>
+      <c r="D69">
+        <v>1</v>
       </c>
       <c r="E69">
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -3483,28 +2641,25 @@
       <c r="I69">
         <v>0</v>
       </c>
-      <c r="J69">
-        <v>0</v>
-      </c>
-      <c r="K69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>1501</v>
       </c>
+      <c r="B70" t="s">
+        <v>77</v>
+      </c>
       <c r="C70">
         <v>0</v>
       </c>
-      <c r="D70" t="s">
-        <v>81</v>
+      <c r="D70">
+        <v>1</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -3515,28 +2670,25 @@
       <c r="I70">
         <v>0</v>
       </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
-      <c r="K70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>1502</v>
       </c>
+      <c r="B71" t="s">
+        <v>78</v>
+      </c>
       <c r="C71">
         <v>0</v>
       </c>
-      <c r="D71" t="s">
-        <v>82</v>
+      <c r="D71">
+        <v>1</v>
       </c>
       <c r="E71">
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -3547,28 +2699,25 @@
       <c r="I71">
         <v>0</v>
       </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
-      <c r="K71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>1601</v>
       </c>
+      <c r="B72" t="s">
+        <v>79</v>
+      </c>
       <c r="C72">
         <v>0</v>
       </c>
-      <c r="D72" t="s">
-        <v>83</v>
+      <c r="D72">
+        <v>1</v>
       </c>
       <c r="E72">
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -3579,28 +2728,25 @@
       <c r="I72">
         <v>0</v>
       </c>
-      <c r="J72">
-        <v>0</v>
-      </c>
-      <c r="K72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>1701</v>
       </c>
+      <c r="B73" t="s">
+        <v>80</v>
+      </c>
       <c r="C73">
         <v>0</v>
       </c>
-      <c r="D73" t="s">
-        <v>84</v>
+      <c r="D73">
+        <v>1</v>
       </c>
       <c r="E73">
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -3611,28 +2757,25 @@
       <c r="I73">
         <v>0</v>
       </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
-      <c r="K73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>1801</v>
       </c>
+      <c r="B74" t="s">
+        <v>81</v>
+      </c>
       <c r="C74">
         <v>0</v>
       </c>
-      <c r="D74" t="s">
-        <v>85</v>
+      <c r="D74">
+        <v>1</v>
       </c>
       <c r="E74">
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -3643,28 +2786,25 @@
       <c r="I74">
         <v>0</v>
       </c>
-      <c r="J74">
-        <v>0</v>
-      </c>
-      <c r="K74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>1802</v>
       </c>
+      <c r="B75" t="s">
+        <v>82</v>
+      </c>
       <c r="C75">
         <v>0</v>
       </c>
-      <c r="D75" t="s">
-        <v>86</v>
+      <c r="D75">
+        <v>1</v>
       </c>
       <c r="E75">
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -3675,28 +2815,25 @@
       <c r="I75">
         <v>0</v>
       </c>
-      <c r="J75">
-        <v>0</v>
-      </c>
-      <c r="K75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>1803</v>
       </c>
+      <c r="B76" t="s">
+        <v>83</v>
+      </c>
       <c r="C76">
         <v>0</v>
       </c>
-      <c r="D76" t="s">
-        <v>87</v>
+      <c r="D76">
+        <v>1</v>
       </c>
       <c r="E76">
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -3707,28 +2844,25 @@
       <c r="I76">
         <v>0</v>
       </c>
-      <c r="J76">
-        <v>0</v>
-      </c>
-      <c r="K76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>1804</v>
       </c>
+      <c r="B77" t="s">
+        <v>84</v>
+      </c>
       <c r="C77">
         <v>0</v>
       </c>
-      <c r="D77" t="s">
-        <v>88</v>
+      <c r="D77">
+        <v>1</v>
       </c>
       <c r="E77">
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -3739,50 +2873,38 @@
       <c r="I77">
         <v>0</v>
       </c>
-      <c r="J77">
-        <v>0</v>
-      </c>
-      <c r="K77">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>